--- a/spec/files/proxy_user.xlsx
+++ b/spec/files/proxy_user.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
-    <sheet name="Lookups" sheetId="11" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="12" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="535">
   <si>
     <t>type</t>
   </si>
@@ -1610,6 +1612,27 @@
   </si>
   <si>
     <t>0.1.10</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -4734,17 +4757,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4764,22 +4787,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="26"/>
       <c r="C1" s="21"/>
@@ -4789,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1">
+    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>453</v>
       </c>
@@ -4799,7 +4822,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>454</v>
       </c>
@@ -4810,7 +4833,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -4821,7 +4844,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>463</v>
       </c>
@@ -4844,7 +4867,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>464</v>
       </c>
@@ -4867,7 +4890,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -4895,7 +4918,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>517</v>
       </c>
@@ -4907,7 +4930,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>518</v>
       </c>
@@ -4919,7 +4942,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>519</v>
       </c>
@@ -4929,7 +4952,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1">
+    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
@@ -4939,7 +4962,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -4950,7 +4973,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4958,7 +4981,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4966,7 +4989,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -4978,7 +5001,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>477</v>
       </c>
@@ -4986,7 +5009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>475</v>
       </c>
@@ -4998,7 +5021,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5006,7 +5029,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>473</v>
       </c>
@@ -5023,7 +5046,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -5037,7 +5060,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5045,7 +5068,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -5063,7 +5086,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5081,7 +5104,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -5131,25 +5154,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5177,7 +5200,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5190,7 +5213,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5255,7 +5278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5266,7 +5289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5288,7 +5311,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5312,7 +5335,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5343,7 +5366,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5383,7 +5406,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5411,7 +5434,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5439,7 +5462,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5467,7 +5490,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5495,7 +5518,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5523,7 +5546,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5551,7 +5574,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5579,7 +5602,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5593,7 +5616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5616,7 +5639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5652,7 +5675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5672,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1">
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5692,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1">
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5712,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5730,7 +5753,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5768,7 +5791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5786,7 +5809,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5824,7 +5847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5846,7 +5869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5871,7 +5894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5889,7 +5912,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5927,7 +5950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5949,7 +5972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5991,25 +6014,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="15"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:W15"/>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6028,7 +6443,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6049,7 +6464,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6072,7 +6487,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6095,7 +6510,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6118,7 +6533,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6141,7 +6556,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6164,7 +6579,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6187,7 +6602,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6210,7 +6625,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6233,7 +6648,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6252,7 +6667,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6273,7 +6688,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6296,7 +6711,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6319,7 +6734,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6342,7 +6757,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6365,7 +6780,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6388,7 +6803,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6411,7 +6826,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6434,7 +6849,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6457,7 +6872,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6476,7 +6891,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6499,7 +6914,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6522,7 +6937,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6545,7 +6960,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6568,7 +6983,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -6591,7 +7006,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -6614,7 +7029,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -6637,7 +7052,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -6660,7 +7075,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -6683,7 +7098,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6702,7 +7117,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -6723,7 +7138,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -6746,7 +7161,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -6769,7 +7184,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6792,7 +7207,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -6815,7 +7230,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -6838,7 +7253,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6861,7 +7276,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6884,7 +7299,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6907,7 +7322,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6926,7 +7341,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -6947,7 +7362,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6970,7 +7385,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6993,7 +7408,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7016,7 +7431,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7039,7 +7454,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7062,7 +7477,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7085,7 +7500,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7108,7 +7523,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7131,7 +7546,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7150,7 +7565,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7171,7 +7586,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7194,7 +7609,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7217,7 +7632,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7240,7 +7655,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7263,7 +7678,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7286,7 +7701,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7309,7 +7724,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7332,7 +7747,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7355,7 +7770,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7374,7 +7789,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7395,7 +7810,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7420,7 +7835,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7443,7 +7858,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7466,7 +7881,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7489,7 +7904,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7512,7 +7927,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7535,7 +7950,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7558,7 +7973,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7581,7 +7996,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7604,7 +8019,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7623,7 +8038,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7644,7 +8059,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7667,7 +8082,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7692,7 +8107,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7715,7 +8130,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7738,7 +8153,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7761,7 +8176,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7784,7 +8199,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -7807,7 +8222,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7830,7 +8245,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -7853,7 +8268,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -7876,7 +8291,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -7899,7 +8314,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7922,7 +8337,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7941,7 +8356,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7964,7 +8379,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7987,7 +8402,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8010,7 +8425,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8033,7 +8448,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8056,7 +8471,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8079,7 +8494,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8102,7 +8517,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8125,7 +8540,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8148,7 +8563,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8171,7 +8586,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8190,7 +8605,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8215,7 +8630,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8234,7 +8649,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8255,7 +8670,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8280,7 +8695,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8299,7 +8714,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8322,7 +8737,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8347,7 +8762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8370,7 +8785,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8391,7 +8806,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8410,7 +8825,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8435,7 +8850,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8458,7 +8873,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8481,7 +8896,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8504,7 +8919,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8527,7 +8942,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8550,7 +8965,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8573,7 +8988,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8592,7 +9007,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8615,7 +9030,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8638,7 +9053,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8661,7 +9076,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8680,7 +9095,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -8703,7 +9118,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8726,7 +9141,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -8749,7 +9164,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -8772,7 +9187,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8795,7 +9210,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -8818,7 +9233,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8837,7 +9252,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8862,7 +9277,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -8885,7 +9300,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -8908,7 +9323,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8931,7 +9346,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -8954,7 +9369,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -8977,7 +9392,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9000,7 +9415,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9023,7 +9438,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9046,7 +9461,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9065,7 +9480,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9090,7 +9505,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9111,7 +9526,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9134,7 +9549,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9157,7 +9572,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9180,7 +9595,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9203,7 +9618,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9226,7 +9641,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9249,7 +9664,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9272,7 +9687,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9295,7 +9710,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9318,7 +9733,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9341,7 +9756,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9364,7 +9779,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9387,7 +9802,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9406,7 +9821,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9429,7 +9844,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9448,7 +9863,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9471,7 +9886,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9494,7 +9909,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9513,7 +9928,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9538,7 +9953,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9561,7 +9976,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9584,7 +9999,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -9607,7 +10022,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -9630,7 +10045,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -9653,7 +10068,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -9676,7 +10091,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -9699,7 +10114,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -9722,7 +10137,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -9745,7 +10160,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9764,7 +10179,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -9789,7 +10204,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -9812,7 +10227,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -9835,7 +10250,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -9858,7 +10273,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -9881,7 +10296,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -9904,7 +10319,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -9927,7 +10342,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -9950,7 +10365,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -9973,7 +10388,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -9996,7 +10411,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10015,7 +10430,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10038,7 +10453,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10061,7 +10476,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10084,7 +10499,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10107,7 +10522,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10126,7 +10541,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10149,7 +10564,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10172,7 +10587,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10195,7 +10610,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10218,7 +10633,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10237,7 +10652,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10258,7 +10673,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10281,7 +10696,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10300,7 +10715,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10323,7 +10738,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10348,7 +10763,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10369,7 +10784,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10394,7 +10809,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10419,7 +10834,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10438,7 +10853,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10463,7 +10878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10486,7 +10901,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10509,7 +10924,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10532,7 +10947,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10555,7 +10970,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10578,7 +10993,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -10601,7 +11016,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -10624,7 +11039,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -10647,7 +11062,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10666,7 +11081,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -10691,7 +11106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -10714,7 +11129,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -10737,7 +11152,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -10760,7 +11175,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -10783,7 +11198,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -10806,7 +11221,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -10829,7 +11244,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -10852,7 +11267,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -10875,7 +11290,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10894,7 +11309,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -10915,7 +11330,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -10938,7 +11353,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -10961,7 +11376,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -10984,7 +11399,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11007,7 +11422,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11030,7 +11445,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11053,7 +11468,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11076,7 +11491,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11099,7 +11514,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11122,7 +11537,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11145,7 +11560,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11168,7 +11583,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11191,7 +11606,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11214,7 +11629,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11237,7 +11652,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11260,7 +11675,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11279,7 +11694,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11300,7 +11715,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11323,7 +11738,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11346,7 +11761,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11369,7 +11784,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11392,7 +11807,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11415,7 +11830,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11438,7 +11853,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11461,7 +11876,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11484,7 +11899,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11507,7 +11922,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11530,7 +11945,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11553,7 +11968,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11576,7 +11991,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -11599,7 +12014,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -11622,7 +12037,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -11645,7 +12060,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11664,7 +12079,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -11689,7 +12104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -11712,7 +12127,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -11735,7 +12150,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -11758,7 +12173,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -11781,7 +12196,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11800,7 +12215,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -11825,7 +12240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -11848,7 +12263,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11867,7 +12282,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11886,7 +12301,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11905,7 +12320,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -11926,7 +12341,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -11949,7 +12364,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -11972,7 +12387,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -11995,7 +12410,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12018,7 +12433,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12041,7 +12456,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12064,7 +12479,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12087,7 +12502,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12110,7 +12525,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12133,7 +12548,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12156,7 +12571,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12175,7 +12590,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12198,7 +12613,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12217,7 +12632,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12242,7 +12657,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12265,7 +12680,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12288,7 +12703,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12311,7 +12726,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12334,7 +12749,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12357,7 +12772,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12380,7 +12795,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12403,7 +12818,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12426,7 +12841,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12449,7 +12864,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12472,7 +12887,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12491,7 +12906,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12514,7 +12929,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12533,7 +12948,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12554,7 +12969,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12573,7 +12988,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -12594,7 +13009,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12613,7 +13028,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -12634,7 +13049,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12653,7 +13068,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -12676,7 +13091,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12695,7 +13110,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -12720,7 +13135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -12743,7 +13158,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -12766,7 +13181,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -12789,7 +13204,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -12812,7 +13227,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -12835,7 +13250,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -12858,7 +13273,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -12881,7 +13296,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -12904,7 +13319,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12923,7 +13338,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -12946,7 +13361,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -12969,7 +13384,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -12992,7 +13407,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13015,7 +13430,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13034,7 +13449,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13057,7 +13472,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13080,7 +13495,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13105,7 +13520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13124,7 +13539,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13149,7 +13564,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13172,7 +13587,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13191,7 +13606,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13212,7 +13627,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13233,7 +13648,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13256,7 +13671,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13275,7 +13690,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13294,7 +13709,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13319,7 +13734,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13354,7 +13769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -13362,13 +13777,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>462</v>
       </c>
@@ -13385,7 +13800,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -13402,7 +13817,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -13419,7 +13834,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -13433,7 +13848,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -13447,7 +13862,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>499</v>
       </c>
@@ -13461,7 +13876,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -13475,7 +13890,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -13489,7 +13904,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>489</v>
       </c>
@@ -13503,7 +13918,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -13517,7 +13932,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -13531,7 +13946,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -13545,7 +13960,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13559,7 +13974,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -13573,7 +13988,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -13587,7 +14002,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>495</v>
       </c>
@@ -13601,7 +14016,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>461</v>
       </c>
@@ -13615,7 +14030,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>498</v>
       </c>
@@ -13629,7 +14044,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>497</v>
       </c>
@@ -13643,16 +14058,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
     </row>
   </sheetData>

--- a/spec/files/proxy_user.xlsx
+++ b/spec/files/proxy_user.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="538">
   <si>
     <t>type</t>
   </si>
@@ -1633,6 +1633,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,6 +1744,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3066,7 +3081,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3131,6 +3146,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1319">
@@ -4757,17 +4779,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4791,18 +4813,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="21"/>
       <c r="B1" s="26"/>
       <c r="C1" s="21"/>
@@ -4812,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>453</v>
       </c>
@@ -4822,7 +4844,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>454</v>
       </c>
@@ -4833,7 +4855,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -4844,7 +4866,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>463</v>
       </c>
@@ -4867,7 +4889,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28">
       <c r="A6" s="1" t="s">
         <v>464</v>
       </c>
@@ -4890,7 +4912,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -4918,7 +4940,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>517</v>
       </c>
@@ -4930,7 +4952,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>518</v>
       </c>
@@ -4942,7 +4964,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>519</v>
       </c>
@@ -4952,7 +4974,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="13" customFormat="1">
       <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
@@ -4962,7 +4984,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -4973,7 +4995,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4981,7 +5003,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4989,7 +5011,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -5001,7 +5023,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>477</v>
       </c>
@@ -5009,7 +5031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A21" s="12" t="s">
         <v>475</v>
       </c>
@@ -5021,7 +5043,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5029,7 +5051,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -5037,7 +5059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>473</v>
       </c>
@@ -5046,7 +5068,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -5060,7 +5082,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5068,7 +5090,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -5086,7 +5108,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -5104,7 +5126,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -5154,25 +5176,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5200,7 +5222,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5213,7 +5235,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5278,7 +5300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5289,7 +5311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5311,7 +5333,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5335,7 +5357,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5366,7 +5388,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5406,7 +5428,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5434,7 +5456,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5462,7 +5484,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5490,7 +5512,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5518,7 +5540,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5546,7 +5568,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5574,7 +5596,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5602,7 +5624,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5616,7 +5638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5675,7 +5697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5695,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5715,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5735,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5753,7 +5775,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5791,7 +5813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5809,7 +5831,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5847,7 +5869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5869,7 +5891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5894,7 +5916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5912,7 +5934,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5950,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5972,7 +5994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -6018,28 +6040,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6065,36 +6087,45 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="29" t="s">
         <v>532</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>536</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
+        <v>537</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -6106,7 +6137,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3"/>
@@ -6116,7 +6147,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6131,7 +6162,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6148,7 +6179,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6164,7 +6195,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="15"/>
@@ -6180,7 +6211,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6196,7 +6227,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6212,7 +6243,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6228,7 +6259,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6244,7 +6275,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6260,7 +6291,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6276,9 +6307,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1"/>
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1">
       <c r="C18" s="19"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -6286,10 +6317,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1"/>
+    <row r="21" spans="1:14" customFormat="1"/>
+    <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6299,7 +6330,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6310,7 +6341,7 @@
       <c r="H23"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6320,7 +6351,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6331,7 +6362,7 @@
       <c r="H25"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6341,7 +6372,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6352,7 +6383,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6362,7 +6393,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6373,7 +6404,7 @@
       <c r="H29"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6383,7 +6414,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6401,6 +6432,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6412,19 +6448,19 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6443,7 +6479,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6464,7 +6500,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6487,7 +6523,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6510,7 +6546,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6533,7 +6569,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6556,7 +6592,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6579,7 +6615,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6602,7 +6638,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6625,7 +6661,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6648,7 +6684,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6667,7 +6703,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6688,7 +6724,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6711,7 +6747,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6734,7 +6770,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6757,7 +6793,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6780,7 +6816,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6803,7 +6839,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6826,7 +6862,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6849,7 +6885,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6872,7 +6908,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6891,7 +6927,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6914,7 +6950,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6937,7 +6973,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6960,7 +6996,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6983,7 +7019,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -7006,7 +7042,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -7029,7 +7065,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -7052,7 +7088,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -7075,7 +7111,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -7098,7 +7134,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7117,7 +7153,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -7138,7 +7174,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -7161,7 +7197,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -7184,7 +7220,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -7207,7 +7243,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -7230,7 +7266,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -7253,7 +7289,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -7276,7 +7312,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -7299,7 +7335,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -7322,7 +7358,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7341,7 +7377,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -7362,7 +7398,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -7385,7 +7421,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -7408,7 +7444,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7431,7 +7467,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7454,7 +7490,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7477,7 +7513,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7500,7 +7536,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7523,7 +7559,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7546,7 +7582,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7565,7 +7601,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7586,7 +7622,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7609,7 +7645,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7632,7 +7668,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7655,7 +7691,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7678,7 +7714,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7701,7 +7737,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7724,7 +7760,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7747,7 +7783,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7770,7 +7806,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7789,7 +7825,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7810,7 +7846,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7835,7 +7871,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7858,7 +7894,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7881,7 +7917,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7904,7 +7940,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7927,7 +7963,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7950,7 +7986,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7973,7 +8009,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7996,7 +8032,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -8019,7 +8055,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8038,7 +8074,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -8059,7 +8095,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -8082,7 +8118,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -8107,7 +8143,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -8130,7 +8166,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -8153,7 +8189,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -8176,7 +8212,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -8199,7 +8235,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -8222,7 +8258,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -8245,7 +8281,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -8268,7 +8304,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -8291,7 +8327,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -8314,7 +8350,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -8337,7 +8373,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8356,7 +8392,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -8379,7 +8415,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -8402,7 +8438,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8425,7 +8461,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8448,7 +8484,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8471,7 +8507,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8494,7 +8530,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8517,7 +8553,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8540,7 +8576,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8563,7 +8599,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8586,7 +8622,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8605,7 +8641,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8630,7 +8666,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8649,7 +8685,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8670,7 +8706,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8695,7 +8731,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8714,7 +8750,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8737,7 +8773,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8762,7 +8798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8785,7 +8821,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8806,7 +8842,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8825,7 +8861,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8850,7 +8886,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8873,7 +8909,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8896,7 +8932,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8919,7 +8955,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8942,7 +8978,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8965,7 +9001,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8988,7 +9024,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -9007,7 +9043,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -9030,7 +9066,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -9053,7 +9089,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -9076,7 +9112,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9095,7 +9131,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -9118,7 +9154,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -9141,7 +9177,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -9164,7 +9200,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -9187,7 +9223,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -9210,7 +9246,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -9233,7 +9269,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9252,7 +9288,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -9277,7 +9313,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -9300,7 +9336,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -9323,7 +9359,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -9346,7 +9382,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -9369,7 +9405,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -9392,7 +9428,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9415,7 +9451,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9438,7 +9474,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9461,7 +9497,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9480,7 +9516,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9505,7 +9541,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9526,7 +9562,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9549,7 +9585,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9572,7 +9608,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9595,7 +9631,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9618,7 +9654,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9641,7 +9677,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9664,7 +9700,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9687,7 +9723,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9710,7 +9746,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9733,7 +9769,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9756,7 +9792,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9779,7 +9815,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9802,7 +9838,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9821,7 +9857,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9844,7 +9880,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9863,7 +9899,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9886,7 +9922,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9909,7 +9945,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9928,7 +9964,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9953,7 +9989,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9976,7 +10012,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9999,7 +10035,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -10022,7 +10058,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -10045,7 +10081,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -10068,7 +10104,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -10091,7 +10127,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -10114,7 +10150,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -10137,7 +10173,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -10160,7 +10196,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10179,7 +10215,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -10204,7 +10240,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -10227,7 +10263,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -10250,7 +10286,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -10273,7 +10309,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -10296,7 +10332,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -10319,7 +10355,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -10342,7 +10378,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -10365,7 +10401,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -10388,7 +10424,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -10411,7 +10447,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10430,7 +10466,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10453,7 +10489,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10476,7 +10512,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10499,7 +10535,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10522,7 +10558,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10541,7 +10577,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10564,7 +10600,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10587,7 +10623,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10610,7 +10646,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10633,7 +10669,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10652,7 +10688,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10673,7 +10709,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10696,7 +10732,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10715,7 +10751,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10738,7 +10774,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10763,7 +10799,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10784,7 +10820,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10809,7 +10845,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10834,7 +10870,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10853,7 +10889,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10878,7 +10914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10901,7 +10937,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10924,7 +10960,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10947,7 +10983,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10970,7 +11006,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10993,7 +11029,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -11016,7 +11052,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -11039,7 +11075,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -11062,7 +11098,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11081,7 +11117,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -11106,7 +11142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -11129,7 +11165,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -11152,7 +11188,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -11175,7 +11211,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -11198,7 +11234,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -11221,7 +11257,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -11244,7 +11280,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -11267,7 +11303,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -11290,7 +11326,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11309,7 +11345,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -11330,7 +11366,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -11353,7 +11389,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -11376,7 +11412,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -11399,7 +11435,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11422,7 +11458,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11445,7 +11481,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11468,7 +11504,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11491,7 +11527,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11514,7 +11550,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11537,7 +11573,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11560,7 +11596,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11583,7 +11619,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11606,7 +11642,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11629,7 +11665,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11652,7 +11688,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11675,7 +11711,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11694,7 +11730,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11715,7 +11751,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11738,7 +11774,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11761,7 +11797,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11784,7 +11820,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11807,7 +11843,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11830,7 +11866,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11853,7 +11889,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11876,7 +11912,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11899,7 +11935,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11922,7 +11958,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11945,7 +11981,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11968,7 +12004,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11991,7 +12027,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -12014,7 +12050,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -12037,7 +12073,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -12060,7 +12096,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12079,7 +12115,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -12104,7 +12140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -12127,7 +12163,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -12150,7 +12186,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -12173,7 +12209,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -12196,7 +12232,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12215,7 +12251,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -12240,7 +12276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -12263,7 +12299,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12282,7 +12318,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12301,7 +12337,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12320,7 +12356,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -12341,7 +12377,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -12364,7 +12400,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -12387,7 +12423,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -12410,7 +12446,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12433,7 +12469,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12456,7 +12492,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12479,7 +12515,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12502,7 +12538,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12525,7 +12561,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12548,7 +12584,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12571,7 +12607,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12590,7 +12626,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12613,7 +12649,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12632,7 +12668,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12657,7 +12693,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12680,7 +12716,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12703,7 +12739,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12726,7 +12762,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12749,7 +12785,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12772,7 +12808,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12795,7 +12831,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12818,7 +12854,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12841,7 +12877,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12864,7 +12900,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12887,7 +12923,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12906,7 +12942,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12929,7 +12965,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12948,7 +12984,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12969,7 +13005,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12988,7 +13024,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -13009,7 +13045,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -13028,7 +13064,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -13049,7 +13085,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13068,7 +13104,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -13091,7 +13127,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13110,7 +13146,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -13135,7 +13171,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -13158,7 +13194,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -13181,7 +13217,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -13204,7 +13240,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -13227,7 +13263,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -13250,7 +13286,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -13273,7 +13309,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -13296,7 +13332,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -13319,7 +13355,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13338,7 +13374,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -13361,7 +13397,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -13384,7 +13420,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -13407,7 +13443,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13430,7 +13466,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13449,7 +13485,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13472,7 +13508,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13495,7 +13531,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13520,7 +13556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13539,7 +13575,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13564,7 +13600,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13587,7 +13623,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13606,7 +13642,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13627,7 +13663,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13648,7 +13684,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13671,7 +13707,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13690,7 +13726,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13709,7 +13745,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13734,7 +13770,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13777,13 +13813,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>462</v>
       </c>
@@ -13800,7 +13836,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -13817,7 +13853,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -13834,7 +13870,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>488</v>
       </c>
@@ -13848,7 +13884,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -13862,7 +13898,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>499</v>
       </c>
@@ -13876,7 +13912,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -13890,7 +13926,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -13904,7 +13940,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>489</v>
       </c>
@@ -13918,7 +13954,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -13932,7 +13968,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -13946,7 +13982,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -13960,7 +13996,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13974,7 +14010,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -13988,7 +14024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -14002,7 +14038,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>495</v>
       </c>
@@ -14016,7 +14052,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>461</v>
       </c>
@@ -14030,7 +14066,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>498</v>
       </c>
@@ -14044,7 +14080,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>497</v>
       </c>
@@ -14058,16 +14094,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="20"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="20"/>
     </row>
   </sheetData>
